--- a/InputFiles/Master_File_Accelerator.xlsx
+++ b/InputFiles/Master_File_Accelerator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul.Reghunath\Documents\Work\POC Snowflake\Nike_QueryReconcilator\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul.Reghunath\Documents\Work\POC Snowflake\Cloned_Repo\Nike_QueryReconcilator\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C052DB-8A59-409F-BCF0-CC3C58FB3DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4893E4F1-4A52-4E1B-98D3-DE79D24BB36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A84D242D-7AA6-4CE0-B119-04C266900FCD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>TEST_NAME</t>
   </si>
@@ -65,21 +65,6 @@
     <t>Normalized-Total Invoice Amount</t>
   </si>
   <si>
-    <t>Normalized-Unique Vendor Count</t>
-  </si>
-  <si>
-    <t>Normalized-Vendor Name vise Invoice Amount</t>
-  </si>
-  <si>
-    <t>Client Classification-TOTAL INVOICE AMOUNT</t>
-  </si>
-  <si>
-    <t>Client Classification-LEVEL_2_SPEND</t>
-  </si>
-  <si>
-    <t>INVENTORY_PLANNING</t>
-  </si>
-  <si>
     <t>Total count of ERP Vendor Name in Normalized ERP Vendor</t>
   </si>
   <si>
@@ -92,18 +77,6 @@
     <t>Total Invoice Amount Normalized vendor</t>
   </si>
   <si>
-    <t>Unique Vendor Count Normalized vendor</t>
-  </si>
-  <si>
-    <t>Vendor Name vise Invoice Amount Normalized vendor</t>
-  </si>
-  <si>
-    <t>TOTAL INVOICE AMOUNT Client Classification classification</t>
-  </si>
-  <si>
-    <t>Client Classification-LEVEL_2_SPEND Classification client classification</t>
-  </si>
-  <si>
     <t>TEST_ID</t>
   </si>
   <si>
@@ -120,12 +93,6 @@
   </si>
   <si>
     <t>Normalized Vendor Spend Percentage Metrics</t>
-  </si>
-  <si>
-    <t>Client Classification Spend Sum</t>
-  </si>
-  <si>
-    <t>Client Classification Spend Level</t>
   </si>
 </sst>
 </file>
@@ -476,11 +443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF161B57-4C51-4956-95D9-70F29EA86515}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
@@ -493,13 +458,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -516,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -536,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -548,27 +513,27 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -576,122 +541,42 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -831,18 +716,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,18 +749,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBB222B-B777-4C60-B240-9D58742FDE27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D987FD6-DC95-4F71-BF3C-A9AD1A3AF706}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBB222B-B777-4C60-B240-9D58742FDE27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputFiles/Master_File_Accelerator.xlsx
+++ b/InputFiles/Master_File_Accelerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul.Reghunath\Documents\Work\POC Snowflake\Cloned_Repo\Nike_QueryReconcilator\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4893E4F1-4A52-4E1B-98D3-DE79D24BB36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FA677-CB4A-4716-862C-7D0154FE8447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A84D242D-7AA6-4CE0-B119-04C266900FCD}"/>
   </bookViews>
@@ -443,9 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF161B57-4C51-4956-95D9-70F29EA86515}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
@@ -576,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -584,6 +586,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF45A6E641576E41ADFBF938D8C0C28F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18ee96dfc0b4b4d1eb8c0ccba0109bab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a86250b5-0f4c-4a9f-9dcb-82ef542c08a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78397db3246627b1c26a51360c947519" ns2:_="">
     <xsd:import namespace="a86250b5-0f4c-4a9f-9dcb-82ef542c08a9"/>
@@ -715,15 +726,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -731,6 +733,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBB222B-B777-4C60-B240-9D58742FDE27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5ECF10D-47BD-44F9-B6AF-33CB2432DEEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -748,14 +758,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FBB222B-B777-4C60-B240-9D58742FDE27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D987FD6-DC95-4F71-BF3C-A9AD1A3AF706}">
   <ds:schemaRefs>
